--- a/Arduino LFO ブロック図.xlsx
+++ b/Arduino LFO ブロック図.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Arduino LFO ブロック図</t>
     <rPh sb="16" eb="17">
       <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.01.21</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -67,7 +63,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PWR</t>
+    <t>2018.01.31</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -75,11 +71,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>0～3.3V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>3.3V</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>BIAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※MCP4922のVREFとOUPUTは2ch分用意</t>
+    <rPh sb="23" eb="24">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Limitterは無効化可能に</t>
+    <rPh sb="10" eb="12">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -158,30 +189,31 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149467</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvPr id="38" name="Rounded Rectangle 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="685800"/>
-          <a:ext cx="3257550" cy="1457325"/>
+          <a:off x="1885950" y="171450"/>
+          <a:ext cx="3600450" cy="4778617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -203,14 +235,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Out</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Main</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> Board</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t> </a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Board</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -218,40 +254,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="1028700"/>
-          <a:ext cx="1371600" cy="2400300"/>
+          <a:off x="5657850" y="685800"/>
+          <a:ext cx="3771900" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -263,10 +300,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Wave Shape</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Output</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> Board</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -274,15 +315,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="1028700"/>
+          <a:ext cx="1371600" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Wave Shape</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -341,13 +438,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -397,15 +494,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -453,15 +550,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -511,15 +608,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -569,15 +666,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -629,13 +726,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -674,10 +771,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
             <a:t>LED x 5</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -687,13 +784,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>170447</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>85224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -736,13 +833,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>170447</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -785,13 +882,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -801,8 +898,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4370294" y="1512794"/>
-          <a:ext cx="840441" cy="672353"/>
+          <a:off x="4114800" y="1200150"/>
+          <a:ext cx="857250" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -830,10 +927,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
             <a:t>MCP4922</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -841,15 +938,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -859,8 +956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5378824" y="1512794"/>
-          <a:ext cx="840441" cy="672353"/>
+          <a:off x="5829300" y="1200150"/>
+          <a:ext cx="857250" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -899,15 +996,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -917,8 +1014,546 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219265" y="1512794"/>
-          <a:ext cx="840441" cy="672353"/>
+          <a:off x="7543800" y="1200150"/>
+          <a:ext cx="857250" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Limitter</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3600450" y="1543050"/>
+          <a:ext cx="514350" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="1543050"/>
+          <a:ext cx="514350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="2485525"/>
+          <a:ext cx="685800" cy="429126"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3.3V</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="4200024"/>
+          <a:ext cx="685800" cy="429126"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5V</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Elbow Connector 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3943350" y="1885950"/>
+          <a:ext cx="942975" cy="814138"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2484</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="505558" y="3878426"/>
+          <a:ext cx="674077" cy="674077"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SQRPW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1179635" y="3538904"/>
+          <a:ext cx="842596" cy="2484"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2484</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1179635" y="4212981"/>
+          <a:ext cx="842596" cy="2484"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Oval 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="2400300"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Level</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Pentagon 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="1200150"/>
+          <a:ext cx="857250" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -957,32 +1592,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="65" name="Elbow Connector 64"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="23" idx="1"/>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="27" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3529853" y="1848971"/>
-          <a:ext cx="840441" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5186361" y="300038"/>
+          <a:ext cx="1028701" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82407"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -990,13 +1627,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1007,92 +1644,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="3"/>
-          <a:endCxn id="26" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5210735" y="1848971"/>
-          <a:ext cx="168089" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2931</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
+        <xdr:cNvPr id="69" name="Pentagon 68"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2864827" y="2444493"/>
-          <a:ext cx="674077" cy="423265"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
+          <a:off x="6686550" y="1200150"/>
+          <a:ext cx="857250" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1105,7 +1692,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3.3V</a:t>
+            <a:t>BIAS</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1115,42 +1702,91 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6943725" y="1885950"/>
+          <a:ext cx="0" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvPr id="70" name="Oval 69"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2864827" y="2950051"/>
-          <a:ext cx="674077" cy="420334"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
+          <a:off x="6643688" y="2762250"/>
+          <a:ext cx="690562" cy="690563"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1162,10 +1798,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>5V</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Bias Level</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1173,25 +1809,165 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3928241" y="4397836"/>
+          <a:ext cx="4697139" cy="42785"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8658225" y="2571750"/>
+          <a:ext cx="0" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9258300" y="1543050"/>
+          <a:ext cx="514350" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvPr id="95" name="Rectangle 94"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="3257550"/>
+          <a:off x="514350" y="5314950"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1227,25 +2003,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvPr id="96" name="Rectangle 95"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="3429000"/>
+          <a:off x="514350" y="5486400"/>
           <a:ext cx="342900" cy="173934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1281,25 +2057,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="97" name="Rectangle 96"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="3602934"/>
+          <a:off x="514350" y="5660334"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1335,25 +2111,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvPr id="98" name="Rectangle 97"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="3774384"/>
+          <a:off x="514350" y="5831784"/>
           <a:ext cx="342900" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1385,262 +2161,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>84260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128338</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Elbow Connector 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="3"/>
-          <a:endCxn id="23" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3538904" y="1853712"/>
-          <a:ext cx="1263894" cy="802414"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>84260</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>126872</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Shape 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-          <a:endCxn id="44" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3538904" y="2107956"/>
-          <a:ext cx="2106491" cy="1052262"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Oval 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="505558" y="3878426"/>
-          <a:ext cx="674077" cy="674077"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>SQRPW</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1179635" y="3538904"/>
-          <a:ext cx="842596" cy="2484"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1179635" y="4212981"/>
-          <a:ext cx="842596" cy="2484"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1931,75 +2451,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AO24"/>
+  <dimension ref="B2:AZ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AS29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:BG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:35">
+    <row r="2" spans="2:47">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:35">
+    <row r="3" spans="2:47">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:35">
-      <c r="AA14" s="1" t="s">
-        <v>8</v>
+    <row r="6" spans="2:47">
+      <c r="AS6" t="s">
+        <v>14</v>
       </c>
-      <c r="AI14" s="1" t="s">
+    </row>
+    <row r="16" spans="2:47">
+      <c r="AD16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:35">
-      <c r="AA15" s="1" t="s">
+    <row r="17" spans="30:52">
+      <c r="AD17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AI15" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="20" spans="30:52">
+      <c r="AZ20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="28:41">
-      <c r="AM19" s="1" t="s">
+    <row r="21" spans="30:52">
+      <c r="AQ21" s="1"/>
+      <c r="AZ21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="30:52">
+      <c r="AO22" s="1"/>
+      <c r="AQ22" s="1"/>
+    </row>
+    <row r="26" spans="30:52">
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+    </row>
+    <row r="27" spans="30:52">
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+    </row>
+    <row r="34" spans="4:15">
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15">
+      <c r="F35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="28:41">
-      <c r="AO20" t="s">
+    <row r="36" spans="4:15">
+      <c r="F36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="28:41">
-      <c r="AO21" t="s">
+    <row r="37" spans="4:15">
+      <c r="F37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="28:41">
-      <c r="AO22" t="s">
+    <row r="38" spans="4:15">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="28:41">
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="28:41">
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Arduino LFO ブロック図.xlsx
+++ b/Arduino LFO ブロック図.xlsx
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.01.31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VREF</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -111,6 +107,10 @@
     <rPh sb="13" eb="15">
       <t>カノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.02.09</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -317,14 +317,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -333,8 +333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="1028700"/>
-          <a:ext cx="1371600" cy="2400300"/>
+          <a:off x="171450" y="1543049"/>
+          <a:ext cx="1371600" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -373,14 +373,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -389,7 +389,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="514350" y="1628775"/>
+          <a:off x="514350" y="1885950"/>
           <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -436,16 +436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -454,8 +454,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="505558" y="3204349"/>
-          <a:ext cx="674077" cy="674077"/>
+          <a:off x="513347" y="3771900"/>
+          <a:ext cx="685800" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -724,64 +724,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="514350" y="2571750"/>
-          <a:ext cx="685800" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>LED x 5</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -796,9 +738,7 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="10" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
@@ -833,14 +773,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>170447</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -851,8 +791,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1193132" y="1960646"/>
-          <a:ext cx="852236" cy="0"/>
+          <a:off x="1200150" y="2228850"/>
+          <a:ext cx="1199147" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1378,16 +1318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2484</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1398,8 +1338,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1179635" y="3538904"/>
-          <a:ext cx="842596" cy="2484"/>
+          <a:off x="1199147" y="4112316"/>
+          <a:ext cx="1200150" cy="2484"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2161,6 +2101,172 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Oval 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="2638425"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>LEDs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Oval 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="685800"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SyncIn</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Shape 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="6"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="1028700"/>
+          <a:ext cx="1543050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2453,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AZ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BG39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:BG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -2466,45 +2572,45 @@
     </row>
     <row r="3" spans="2:47">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:47">
       <c r="AS6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:47">
       <c r="AD16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="30:52">
       <c r="AD17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="30:52">
       <c r="AZ20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="30:52">
       <c r="AQ21" s="1"/>
       <c r="AZ21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="30:52">
@@ -2524,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="4:15">

--- a/Arduino LFO ブロック図.xlsx
+++ b/Arduino LFO ブロック図.xlsx
@@ -110,7 +110,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.02.09</t>
+    <t>2018.02.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,15 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +183,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2560,7 +2572,7 @@
   <dimension ref="B2:AZ38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BG40"/>
+      <selection sqref="A1:BF39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -2629,7 +2641,7 @@
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Arduino LFO ブロック図.xlsx
+++ b/Arduino LFO ブロック図.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\ArduinoLFO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="17235" windowHeight="9870"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Arduino LFO ブロック図</t>
     <rPh sb="16" eb="17">
@@ -75,10 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BIAS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PWR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,38 +88,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※MCP4922のVREFとOUPUTは2ch分用意</t>
-    <rPh sb="23" eb="24">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨウイ</t>
-    </rPh>
+    <t>2018.03.17</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※Limitterは無効化可能に</t>
-    <rPh sb="10" eb="12">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
+    <t>0～3.3V</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.02.25</t>
+    <t>BIAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Limitter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON/OFF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +188,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -268,13 +270,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -284,8 +286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="685800"/>
-          <a:ext cx="3771900" cy="1885950"/>
+          <a:off x="5657850" y="1028700"/>
+          <a:ext cx="3771900" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1320,7 +1322,14 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>SQRPW</a:t>
+            <a:t>SQR</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PW</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1544,58 +1553,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Elbow Connector 64"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="2"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5186361" y="300038"/>
-          <a:ext cx="1028701" cy="4200525"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -82407"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -1654,65 +1611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="69" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6943725" y="1885950"/>
-          <a:ext cx="0" cy="1885950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+      <xdr:colOff>149087</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>170793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1721,8 +1629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6643688" y="2762250"/>
-          <a:ext cx="690562" cy="690563"/>
+          <a:off x="6758609" y="3478696"/>
+          <a:ext cx="695739" cy="692597"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1761,60 +1669,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>170793</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128008</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="Straight Connector 83"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3928241" y="4397836"/>
-          <a:ext cx="4697139" cy="42785"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>157368</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1825,8 +1687,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8658225" y="2571750"/>
-          <a:ext cx="0" cy="1885950"/>
+          <a:off x="9201977" y="3304761"/>
+          <a:ext cx="1" cy="1739348"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2273,6 +2135,299 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7106478" y="2431945"/>
+          <a:ext cx="0" cy="1046751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8696739" y="3304761"/>
+          <a:ext cx="0" cy="1217543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Oval 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653130" y="3481838"/>
+          <a:ext cx="695739" cy="692597"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>168393</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>168393</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7995458" y="2451823"/>
+          <a:ext cx="0" cy="1046751"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5652882" y="1478446"/>
+          <a:ext cx="1043607" cy="5044108"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="4999753"/>
+          <a:ext cx="5218043" cy="44356"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2327,7 +2482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2359,9 +2514,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2393,6 +2549,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2568,99 +2725,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AZ38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:BB38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:BF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:47">
+    <row r="2" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:47">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:47">
-      <c r="AS6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:47">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.15">
       <c r="AD16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="17" spans="30:52">
+    <row r="17" spans="30:54" x14ac:dyDescent="0.15">
       <c r="AD17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AU17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="30:54" x14ac:dyDescent="0.15">
+      <c r="AY20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="30:54" x14ac:dyDescent="0.15">
+      <c r="AQ21" s="1"/>
+      <c r="AY21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="30:52">
-      <c r="AZ20" s="1" t="s">
+      <c r="BB21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="30:52">
-      <c r="AQ21" s="1"/>
-      <c r="AZ21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="30:52">
+    <row r="22" spans="30:54" x14ac:dyDescent="0.15">
       <c r="AO22" s="1"/>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="26" spans="30:52">
+    <row r="26" spans="30:54" x14ac:dyDescent="0.15">
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" spans="30:52">
+    <row r="27" spans="30:54" x14ac:dyDescent="0.15">
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
     </row>
-    <row r="34" spans="4:15">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="4:15">
+    <row r="35" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:15">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="4:15">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="4:15">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" t="s">
@@ -2676,12 +2832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2689,12 +2845,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
